--- a/matlab/logDataProcess/ipb41-53.xlsx
+++ b/matlab/logDataProcess/ipb41-53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>reactor</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>10us-100ns-600c</t>
+  </si>
+  <si>
+    <t>IPB4-3_Qseq_PW_10us-100ns_50W_275C-325C_D2_8-7-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>080917</t>
+  </si>
+  <si>
+    <t>10us-100ns-275-325c</t>
+  </si>
+  <si>
+    <t>IPB3_Conditioning_600C-300C_8-9-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>2017-08-09-v1812-Core_56b_Ni-Pd</t>
+  </si>
+  <si>
+    <t>081017</t>
+  </si>
+  <si>
+    <t>10us-100ns-600-300c</t>
   </si>
 </sst>
 </file>
@@ -951,7 +972,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1182,12 +1203,106 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
